--- a/Sprint86V01x.xlsx
+++ b/Sprint86V01x.xlsx
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K112" totalsRowShown="0">
-  <x:autoFilter ref="A1:K112"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K106" totalsRowShown="0">
+  <x:autoFilter ref="A1:K106"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -746,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K112"/>
+  <x:dimension ref="A1:K106"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2411,13 +2411,13 @@
     </x:row>
     <x:row r="75" spans="1:11">
       <x:c r="A75" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>14</x:v>
@@ -2427,10 +2427,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s"/>
       <x:c r="J75" s="0" t="s"/>
@@ -2446,10 +2446,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s"/>
       <x:c r="J76" s="0" t="s"/>
@@ -2457,13 +2457,13 @@
     </x:row>
     <x:row r="77" spans="1:11">
       <x:c r="A77" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
         <x:v>14</x:v>
@@ -2473,10 +2473,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s"/>
       <x:c r="J77" s="0" t="s"/>
@@ -2487,42 +2487,38 @@
       <x:c r="B78" s="0" t="s"/>
       <x:c r="C78" s="0" t="s"/>
       <x:c r="D78" s="0" t="s"/>
-      <x:c r="E78" s="0" t="s"/>
+      <x:c r="E78" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="F78" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s"/>
       <x:c r="J78" s="0" t="s"/>
       <x:c r="K78" s="0" t="s"/>
     </x:row>
     <x:row r="79" spans="1:11">
-      <x:c r="A79" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B79" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C79" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D79" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E79" s="0" t="s"/>
+      <x:c r="A79" s="0" t="s"/>
+      <x:c r="B79" s="0" t="s"/>
+      <x:c r="C79" s="0" t="s"/>
+      <x:c r="D79" s="0" t="s"/>
+      <x:c r="E79" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s"/>
       <x:c r="J79" s="0" t="s"/>
@@ -2534,16 +2530,16 @@
       <x:c r="C80" s="0" t="s"/>
       <x:c r="D80" s="0" t="s"/>
       <x:c r="E80" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s"/>
       <x:c r="J80" s="0" t="s"/>
@@ -2555,16 +2551,16 @@
       <x:c r="C81" s="0" t="s"/>
       <x:c r="D81" s="0" t="s"/>
       <x:c r="E81" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s"/>
       <x:c r="J81" s="0" t="s"/>
@@ -2576,16 +2572,16 @@
       <x:c r="C82" s="0" t="s"/>
       <x:c r="D82" s="0" t="s"/>
       <x:c r="E82" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s"/>
       <x:c r="J82" s="0" t="s"/>
@@ -2597,16 +2593,16 @@
       <x:c r="C83" s="0" t="s"/>
       <x:c r="D83" s="0" t="s"/>
       <x:c r="E83" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s"/>
       <x:c r="J83" s="0" t="s"/>
@@ -2617,38 +2613,42 @@
       <x:c r="B84" s="0" t="s"/>
       <x:c r="C84" s="0" t="s"/>
       <x:c r="D84" s="0" t="s"/>
-      <x:c r="E84" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
+      <x:c r="E84" s="0" t="s"/>
       <x:c r="F84" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s"/>
       <x:c r="J84" s="0" t="s"/>
       <x:c r="K84" s="0" t="s"/>
     </x:row>
     <x:row r="85" spans="1:11">
-      <x:c r="A85" s="0" t="s"/>
-      <x:c r="B85" s="0" t="s"/>
-      <x:c r="C85" s="0" t="s"/>
-      <x:c r="D85" s="0" t="s"/>
-      <x:c r="E85" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="A85" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s"/>
       <x:c r="F85" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s"/>
       <x:c r="J85" s="0" t="s"/>
@@ -2661,13 +2661,13 @@
       <x:c r="D86" s="0" t="s"/>
       <x:c r="E86" s="0" t="s"/>
       <x:c r="F86" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s"/>
       <x:c r="J86" s="0" t="s"/>
@@ -2675,13 +2675,13 @@
     </x:row>
     <x:row r="87" spans="1:11">
       <x:c r="A87" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
         <x:v>14</x:v>
@@ -2691,10 +2691,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H87" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s"/>
       <x:c r="J87" s="0" t="s"/>
@@ -2710,10 +2710,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s"/>
       <x:c r="J88" s="0" t="s"/>
@@ -2721,13 +2721,13 @@
     </x:row>
     <x:row r="89" spans="1:11">
       <x:c r="A89" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
         <x:v>14</x:v>
@@ -2737,10 +2737,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H89" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s"/>
       <x:c r="J89" s="0" t="s"/>
@@ -2751,42 +2751,38 @@
       <x:c r="B90" s="0" t="s"/>
       <x:c r="C90" s="0" t="s"/>
       <x:c r="D90" s="0" t="s"/>
-      <x:c r="E90" s="0" t="s"/>
+      <x:c r="E90" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="F90" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G90" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H90" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s"/>
       <x:c r="J90" s="0" t="s"/>
       <x:c r="K90" s="0" t="s"/>
     </x:row>
     <x:row r="91" spans="1:11">
-      <x:c r="A91" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C91" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D91" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E91" s="0" t="s"/>
+      <x:c r="A91" s="0" t="s"/>
+      <x:c r="B91" s="0" t="s"/>
+      <x:c r="C91" s="0" t="s"/>
+      <x:c r="D91" s="0" t="s"/>
+      <x:c r="E91" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s"/>
       <x:c r="J91" s="0" t="s"/>
@@ -2798,16 +2794,16 @@
       <x:c r="C92" s="0" t="s"/>
       <x:c r="D92" s="0" t="s"/>
       <x:c r="E92" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s"/>
       <x:c r="J92" s="0" t="s"/>
@@ -2819,16 +2815,16 @@
       <x:c r="C93" s="0" t="s"/>
       <x:c r="D93" s="0" t="s"/>
       <x:c r="E93" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s"/>
       <x:c r="J93" s="0" t="s"/>
@@ -2840,16 +2836,16 @@
       <x:c r="C94" s="0" t="s"/>
       <x:c r="D94" s="0" t="s"/>
       <x:c r="E94" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s"/>
       <x:c r="J94" s="0" t="s"/>
@@ -2861,16 +2857,16 @@
       <x:c r="C95" s="0" t="s"/>
       <x:c r="D95" s="0" t="s"/>
       <x:c r="E95" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s"/>
       <x:c r="J95" s="0" t="s"/>
@@ -2881,38 +2877,42 @@
       <x:c r="B96" s="0" t="s"/>
       <x:c r="C96" s="0" t="s"/>
       <x:c r="D96" s="0" t="s"/>
-      <x:c r="E96" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
+      <x:c r="E96" s="0" t="s"/>
       <x:c r="F96" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s"/>
       <x:c r="J96" s="0" t="s"/>
       <x:c r="K96" s="0" t="s"/>
     </x:row>
     <x:row r="97" spans="1:11">
-      <x:c r="A97" s="0" t="s"/>
-      <x:c r="B97" s="0" t="s"/>
-      <x:c r="C97" s="0" t="s"/>
-      <x:c r="D97" s="0" t="s"/>
-      <x:c r="E97" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="A97" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s"/>
       <x:c r="F97" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G97" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H97" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s"/>
       <x:c r="J97" s="0" t="s"/>
@@ -2925,13 +2925,13 @@
       <x:c r="D98" s="0" t="s"/>
       <x:c r="E98" s="0" t="s"/>
       <x:c r="F98" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H98" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s"/>
       <x:c r="J98" s="0" t="s"/>
@@ -2939,13 +2939,13 @@
     </x:row>
     <x:row r="99" spans="1:11">
       <x:c r="A99" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
         <x:v>14</x:v>
@@ -2955,10 +2955,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H99" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s"/>
       <x:c r="J99" s="0" t="s"/>
@@ -2969,42 +2969,38 @@
       <x:c r="B100" s="0" t="s"/>
       <x:c r="C100" s="0" t="s"/>
       <x:c r="D100" s="0" t="s"/>
-      <x:c r="E100" s="0" t="s"/>
+      <x:c r="E100" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="F100" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H100" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s"/>
       <x:c r="J100" s="0" t="s"/>
       <x:c r="K100" s="0" t="s"/>
     </x:row>
     <x:row r="101" spans="1:11">
-      <x:c r="A101" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C101" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D101" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E101" s="0" t="s"/>
+      <x:c r="A101" s="0" t="s"/>
+      <x:c r="B101" s="0" t="s"/>
+      <x:c r="C101" s="0" t="s"/>
+      <x:c r="D101" s="0" t="s"/>
+      <x:c r="E101" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s"/>
       <x:c r="J101" s="0" t="s"/>
@@ -3015,42 +3011,38 @@
       <x:c r="B102" s="0" t="s"/>
       <x:c r="C102" s="0" t="s"/>
       <x:c r="D102" s="0" t="s"/>
-      <x:c r="E102" s="0" t="s"/>
+      <x:c r="E102" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G102" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H102" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s"/>
       <x:c r="J102" s="0" t="s"/>
       <x:c r="K102" s="0" t="s"/>
     </x:row>
     <x:row r="103" spans="1:11">
-      <x:c r="A103" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C103" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D103" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E103" s="0" t="s"/>
+      <x:c r="A103" s="0" t="s"/>
+      <x:c r="B103" s="0" t="s"/>
+      <x:c r="C103" s="0" t="s"/>
+      <x:c r="D103" s="0" t="s"/>
+      <x:c r="E103" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="F103" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G103" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H103" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s"/>
       <x:c r="J103" s="0" t="s"/>
@@ -3062,16 +3054,16 @@
       <x:c r="C104" s="0" t="s"/>
       <x:c r="D104" s="0" t="s"/>
       <x:c r="E104" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F104" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G104" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H104" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I104" s="0" t="s"/>
       <x:c r="J104" s="0" t="s"/>
@@ -3083,16 +3075,16 @@
       <x:c r="C105" s="0" t="s"/>
       <x:c r="D105" s="0" t="s"/>
       <x:c r="E105" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H105" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s"/>
       <x:c r="J105" s="0" t="s"/>
@@ -3103,149 +3095,19 @@
       <x:c r="B106" s="0" t="s"/>
       <x:c r="C106" s="0" t="s"/>
       <x:c r="D106" s="0" t="s"/>
-      <x:c r="E106" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
+      <x:c r="E106" s="0" t="s"/>
       <x:c r="F106" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G106" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H106" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I106" s="0" t="s"/>
       <x:c r="J106" s="0" t="s"/>
       <x:c r="K106" s="0" t="s"/>
-    </x:row>
-    <x:row r="107" spans="1:11">
-      <x:c r="A107" s="0" t="s"/>
-      <x:c r="B107" s="0" t="s"/>
-      <x:c r="C107" s="0" t="s"/>
-      <x:c r="D107" s="0" t="s"/>
-      <x:c r="E107" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F107" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G107" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="H107" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I107" s="0" t="s"/>
-      <x:c r="J107" s="0" t="s"/>
-      <x:c r="K107" s="0" t="s"/>
-    </x:row>
-    <x:row r="108" spans="1:11">
-      <x:c r="A108" s="0" t="s"/>
-      <x:c r="B108" s="0" t="s"/>
-      <x:c r="C108" s="0" t="s"/>
-      <x:c r="D108" s="0" t="s"/>
-      <x:c r="E108" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F108" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G108" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H108" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I108" s="0" t="s"/>
-      <x:c r="J108" s="0" t="s"/>
-      <x:c r="K108" s="0" t="s"/>
-    </x:row>
-    <x:row r="109" spans="1:11">
-      <x:c r="A109" s="0" t="s"/>
-      <x:c r="B109" s="0" t="s"/>
-      <x:c r="C109" s="0" t="s"/>
-      <x:c r="D109" s="0" t="s"/>
-      <x:c r="E109" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F109" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G109" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="H109" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="I109" s="0" t="s"/>
-      <x:c r="J109" s="0" t="s"/>
-      <x:c r="K109" s="0" t="s"/>
-    </x:row>
-    <x:row r="110" spans="1:11">
-      <x:c r="A110" s="0" t="s"/>
-      <x:c r="B110" s="0" t="s"/>
-      <x:c r="C110" s="0" t="s"/>
-      <x:c r="D110" s="0" t="s"/>
-      <x:c r="E110" s="0" t="s"/>
-      <x:c r="F110" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G110" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="H110" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="I110" s="0" t="s"/>
-      <x:c r="J110" s="0" t="s"/>
-      <x:c r="K110" s="0" t="s"/>
-    </x:row>
-    <x:row r="111" spans="1:11">
-      <x:c r="A111" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B111" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C111" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D111" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E111" s="0" t="s"/>
-      <x:c r="F111" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G111" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H111" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="I111" s="0" t="s"/>
-      <x:c r="J111" s="0" t="s"/>
-      <x:c r="K111" s="0" t="s"/>
-    </x:row>
-    <x:row r="112" spans="1:11">
-      <x:c r="A112" s="0" t="s"/>
-      <x:c r="B112" s="0" t="s"/>
-      <x:c r="C112" s="0" t="s"/>
-      <x:c r="D112" s="0" t="s"/>
-      <x:c r="E112" s="0" t="s"/>
-      <x:c r="F112" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G112" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="H112" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="I112" s="0" t="s"/>
-      <x:c r="J112" s="0" t="s"/>
-      <x:c r="K112" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Sprint86V01x.xlsx
+++ b/Sprint86V01x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E827E331-DEF5-486A-8A88-6435AA0F7760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576A40A7-77F0-455C-8778-E73B70F63655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="112">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -729,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,10 +744,10 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="72.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
@@ -806,7 +812,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -843,7 +852,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -872,7 +884,10 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="J5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -909,7 +924,10 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -938,7 +956,10 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -975,7 +996,10 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1012,7 +1036,10 @@
         <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1310,7 +1337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1333,10 +1360,13 @@
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>58</v>
       </c>
@@ -1350,7 +1380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>61</v>
       </c>
@@ -1364,7 +1394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +1408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>67</v>
       </c>
@@ -1392,7 +1422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>70</v>
       </c>
@@ -1406,7 +1436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>73</v>
       </c>
@@ -1417,7 +1447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1473,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>58</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>61</v>
       </c>
@@ -1471,7 +1501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>64</v>
       </c>
@@ -1485,7 +1515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>67</v>
       </c>
@@ -1499,7 +1529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>70</v>
       </c>
@@ -1513,7 +1543,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>73</v>
       </c>
@@ -1524,7 +1554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +1580,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>18</v>
       </c>
@@ -1561,7 +1591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1584,10 +1614,13 @@
         <v>57</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>58</v>
       </c>
@@ -1601,7 +1634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>61</v>
       </c>
@@ -1615,7 +1648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>64</v>
       </c>
@@ -1629,7 +1662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>67</v>
       </c>
@@ -1643,7 +1676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>70</v>
       </c>
@@ -1657,7 +1690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>73</v>
       </c>
@@ -1668,7 +1701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1691,10 +1724,13 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>18</v>
       </c>
@@ -1705,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1767,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>58</v>
       </c>
@@ -1745,7 +1781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>61</v>
       </c>
@@ -1759,7 +1795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>64</v>
       </c>
@@ -1773,7 +1809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>67</v>
       </c>
@@ -1787,7 +1823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>70</v>
       </c>
@@ -1801,7 +1837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>73</v>
       </c>

--- a/Sprint86V01x.xlsx
+++ b/Sprint86V01x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576A40A7-77F0-455C-8778-E73B70F63655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4653F8-603F-49BF-9315-755E8D1357FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="112">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -376,7 +376,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +387,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5F9EA0"/>
         <bgColor rgb="FF5F9EA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -402,9 +408,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +743,7 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +819,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -852,10 +856,7 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -884,10 +885,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -924,10 +922,7 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -956,10 +951,7 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -996,10 +988,7 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1036,10 +1025,7 @@
         <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1360,10 +1346,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1469,8 +1452,11 @@
       <c r="H40" t="s">
         <v>57</v>
       </c>
-      <c r="I40" t="s">
-        <v>109</v>
+      <c r="I40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1576,8 +1562,11 @@
       <c r="H47" t="s">
         <v>102</v>
       </c>
-      <c r="I47" t="s">
-        <v>109</v>
+      <c r="I47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1614,10 +1603,7 @@
         <v>57</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
-      </c>
-      <c r="J49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1724,10 +1710,7 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>110</v>
-      </c>
-      <c r="J56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1763,8 +1746,11 @@
       <c r="H58" t="s">
         <v>57</v>
       </c>
-      <c r="I58" t="s">
-        <v>109</v>
+      <c r="I58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1870,11 +1856,14 @@
       <c r="H65" t="s">
         <v>29</v>
       </c>
-      <c r="I65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1907,11 +1896,14 @@
       <c r="H67" t="s">
         <v>107</v>
       </c>
-      <c r="I67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>79</v>
       </c>
@@ -1925,7 +1917,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>82</v>
       </c>
@@ -1939,7 +1931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>85</v>
       </c>
@@ -1953,7 +1945,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>88</v>
       </c>
@@ -1967,7 +1959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>91</v>
       </c>
@@ -1981,7 +1973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>94</v>
       </c>
@@ -1995,7 +1987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>97</v>
       </c>
@@ -2006,7 +1998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2028,11 +2020,14 @@
       <c r="H75" t="s">
         <v>29</v>
       </c>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>18</v>
       </c>
@@ -2043,7 +2038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2065,11 +2060,14 @@
       <c r="H77" t="s">
         <v>107</v>
       </c>
-      <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>79</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>82</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>85</v>
       </c>
@@ -2111,7 +2109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>88</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>91</v>
       </c>
@@ -2139,7 +2137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>94</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>97</v>
       </c>
@@ -2164,7 +2162,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2186,11 +2184,14 @@
       <c r="H85" t="s">
         <v>29</v>
       </c>
-      <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>18</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2223,11 +2224,14 @@
       <c r="H87" t="s">
         <v>107</v>
       </c>
-      <c r="I87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>79</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>82</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>85</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>88</v>
       </c>
@@ -2283,7 +2287,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>91</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>94</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>97</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2344,11 +2348,14 @@
       <c r="H95" t="s">
         <v>29</v>
       </c>
-      <c r="I95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -2381,11 +2388,14 @@
       <c r="H97" t="s">
         <v>107</v>
       </c>
-      <c r="I97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>79</v>
       </c>
@@ -2399,7 +2409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>82</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>85</v>
       </c>
@@ -2427,7 +2437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>88</v>
       </c>
@@ -2441,7 +2451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>91</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>94</v>
       </c>
@@ -2469,7 +2479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>97</v>
       </c>

--- a/Sprint86V01x.xlsx
+++ b/Sprint86V01x.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4653F8-603F-49BF-9315-755E8D1357FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F90617-7DBD-44D2-99CF-31EEE471180A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="110">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -350,12 +350,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -431,13 +425,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K104" totalsRowShown="0">
-  <autoFilter ref="A1:K104" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K104" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -743,25 +731,25 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+      <selection activeCell="I2" sqref="I2:I97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="72.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="72.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -822,7 +810,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>18</v>
       </c>
@@ -833,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -862,7 +850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -888,7 +876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>18</v>
       </c>
@@ -899,7 +887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -928,7 +916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -954,7 +942,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -965,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -991,7 +979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1016,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>37</v>
       </c>
@@ -1042,7 +1030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>40</v>
       </c>
@@ -1056,7 +1044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>44</v>
       </c>
@@ -1070,7 +1058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>48</v>
       </c>
@@ -1084,7 +1072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>52</v>
       </c>
@@ -1095,7 +1083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1121,7 +1109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>58</v>
       </c>
@@ -1135,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>61</v>
       </c>
@@ -1149,7 +1137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>64</v>
       </c>
@@ -1163,7 +1151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>67</v>
       </c>
@@ -1177,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>70</v>
       </c>
@@ -1191,7 +1179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>73</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1216,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>79</v>
       </c>
@@ -1242,7 +1230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>82</v>
       </c>
@@ -1256,7 +1244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>85</v>
       </c>
@@ -1270,7 +1258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>88</v>
       </c>
@@ -1284,7 +1272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>91</v>
       </c>
@@ -1298,7 +1286,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>94</v>
       </c>
@@ -1312,7 +1300,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>97</v>
       </c>
@@ -1323,7 +1311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1337,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>58</v>
       </c>
@@ -1363,7 +1351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>61</v>
       </c>
@@ -1377,7 +1365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>64</v>
       </c>
@@ -1391,7 +1379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>67</v>
       </c>
@@ -1405,7 +1393,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>70</v>
       </c>
@@ -1419,7 +1407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F39" t="s">
         <v>73</v>
       </c>
@@ -1430,7 +1418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1452,14 +1440,12 @@
       <c r="H40" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
         <v>58</v>
       </c>
@@ -1473,7 +1459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
         <v>61</v>
       </c>
@@ -1487,7 +1473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>64</v>
       </c>
@@ -1501,7 +1487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>67</v>
       </c>
@@ -1515,7 +1501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>70</v>
       </c>
@@ -1529,7 +1515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
         <v>73</v>
       </c>
@@ -1540,7 +1526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1562,14 +1548,12 @@
       <c r="H47" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>58</v>
       </c>
@@ -1620,7 +1604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>61</v>
       </c>
@@ -1634,7 +1618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
         <v>64</v>
       </c>
@@ -1648,7 +1632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
         <v>67</v>
       </c>
@@ -1662,7 +1646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
         <v>70</v>
       </c>
@@ -1676,7 +1660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F55" t="s">
         <v>73</v>
       </c>
@@ -1687,7 +1671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
         <v>18</v>
       </c>
@@ -1724,7 +1708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1746,14 +1730,12 @@
       <c r="H58" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
         <v>58</v>
       </c>
@@ -1767,7 +1749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
         <v>61</v>
       </c>
@@ -1781,7 +1763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
         <v>64</v>
       </c>
@@ -1795,7 +1777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
         <v>67</v>
       </c>
@@ -1809,7 +1791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
         <v>70</v>
       </c>
@@ -1823,7 +1805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F64" t="s">
         <v>73</v>
       </c>
@@ -1834,7 +1816,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1856,14 +1838,12 @@
       <c r="H65" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F66" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1896,14 +1876,12 @@
       <c r="H67" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>109</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
         <v>79</v>
       </c>
@@ -1917,7 +1895,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
         <v>82</v>
       </c>
@@ -1931,7 +1909,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
         <v>85</v>
       </c>
@@ -1945,7 +1923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
         <v>88</v>
       </c>
@@ -1959,7 +1937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
         <v>91</v>
       </c>
@@ -1973,7 +1951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
         <v>94</v>
       </c>
@@ -1987,7 +1965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F74" t="s">
         <v>97</v>
       </c>
@@ -1998,7 +1976,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2020,14 +1998,12 @@
       <c r="H75" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F76" t="s">
         <v>18</v>
       </c>
@@ -2038,7 +2014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2060,14 +2036,12 @@
       <c r="H77" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E78" t="s">
         <v>79</v>
       </c>
@@ -2081,7 +2055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E79" t="s">
         <v>82</v>
       </c>
@@ -2095,7 +2069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E80" t="s">
         <v>85</v>
       </c>
@@ -2109,7 +2083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E81" t="s">
         <v>88</v>
       </c>
@@ -2123,7 +2097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
         <v>91</v>
       </c>
@@ -2137,7 +2111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E83" t="s">
         <v>94</v>
       </c>
@@ -2151,7 +2125,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F84" t="s">
         <v>97</v>
       </c>
@@ -2162,7 +2136,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2184,14 +2158,12 @@
       <c r="H85" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F86" t="s">
         <v>18</v>
       </c>
@@ -2202,7 +2174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2224,14 +2196,12 @@
       <c r="H87" t="s">
         <v>107</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
         <v>79</v>
       </c>
@@ -2245,7 +2215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E89" t="s">
         <v>82</v>
       </c>
@@ -2259,7 +2229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
         <v>85</v>
       </c>
@@ -2273,7 +2243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
         <v>88</v>
       </c>
@@ -2287,7 +2257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
         <v>91</v>
       </c>
@@ -2301,7 +2271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
         <v>94</v>
       </c>
@@ -2315,7 +2285,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F94" t="s">
         <v>97</v>
       </c>
@@ -2326,7 +2296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2348,14 +2318,12 @@
       <c r="H95" t="s">
         <v>29</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>109</v>
+      </c>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F96" t="s">
         <v>18</v>
       </c>
@@ -2366,7 +2334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -2388,14 +2356,12 @@
       <c r="H97" t="s">
         <v>107</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E98" t="s">
         <v>79</v>
       </c>
@@ -2409,7 +2375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E99" t="s">
         <v>82</v>
       </c>
@@ -2423,7 +2389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E100" t="s">
         <v>85</v>
       </c>
@@ -2437,7 +2403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E101" t="s">
         <v>88</v>
       </c>
@@ -2451,7 +2417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E102" t="s">
         <v>91</v>
       </c>
@@ -2465,7 +2431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E103" t="s">
         <v>94</v>
       </c>
@@ -2479,7 +2445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F104" t="s">
         <v>97</v>
       </c>
